--- a/8月制作内容/编剧文档/【编剧】卷首剧情+0812.xlsx
+++ b/8月制作内容/编剧文档/【编剧】卷首剧情+0812.xlsx
@@ -13,12 +13,12 @@
     <sheet name="精简版" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>开场表现方式part1：</t>
   </si>
@@ -254,6 +254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>五岁的你、沈氏、王氏、</t>
@@ -271,6 +272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、乳娘、</t>
@@ -621,39 +623,39 @@
     <t>那年，我五岁……</t>
   </si>
   <si>
+    <t>沈xx（母亲）</t>
+  </si>
+  <si>
+    <t>(耐心叮嘱）四娘乖，你忍一忍，一会就能见到阿爷了。</t>
+  </si>
+  <si>
+    <t>插画描述</t>
+  </si>
+  <si>
+    <t>仆人探出身动态效果</t>
+  </si>
+  <si>
+    <t>偌大前厅站着许多人，却没一人愿意开口。一名容貌艳丽的女子端着杯茶盏卓约多姿地步了出来。</t>
+  </si>
+  <si>
+    <t>王xx（继室）</t>
+  </si>
+  <si>
+    <t>姐姐喝茶。</t>
+  </si>
+  <si>
     <t>阿娘</t>
   </si>
   <si>
-    <t>(耐心叮嘱）四娘乖，你忍一忍，一会就能见到阿爷了。</t>
-  </si>
-  <si>
-    <t>人物标签</t>
-  </si>
-  <si>
-    <t>沈氏：【我】的母亲。钱万三嫡妻，现育有一女且身怀六甲。</t>
-  </si>
-  <si>
-    <t>仆人探出身动态效果</t>
-  </si>
-  <si>
-    <t>偌大前厅站着许多人，却没一人愿意开口。一名容貌艳丽的女子端着杯茶盏卓约多姿地步了出来。</t>
-  </si>
-  <si>
-    <t>姐姐喝茶。</t>
-  </si>
-  <si>
-    <t>沈氏：【我】的继母。钱万三平妻，现育有一女（五娘）</t>
-  </si>
-  <si>
     <t>并嫡？！若我不同意呢？</t>
   </si>
   <si>
+    <t>钱xx(父亲)</t>
+  </si>
+  <si>
     <t>（焦急）你就算不为你自个想想，也得为四娘和肚子里的孩子考虑。</t>
   </si>
   <si>
-    <t>钱万三：【我】的阿爷（父亲）。钱府主人，富商。</t>
-  </si>
-  <si>
     <t>面对眼前的境况，如果我是阿娘，会怎么做？</t>
   </si>
   <si>
@@ -726,16 +728,13 @@
     <t>好孩子，你可千万别出声，不然今晚还得搭上两条命！</t>
   </si>
   <si>
-    <t>方妈妈：五娘的乳母。</t>
-  </si>
-  <si>
     <t>眼泪落下镜头。</t>
   </si>
   <si>
     <t>（探了探对方气息）哎呀，不好！她，她没气了……</t>
   </si>
   <si>
-    <t>房氏：【我】的大伯母，育有一女（大娘）二子（二郎，三郎，夭折）。</t>
+    <t>房xx（大伯母）</t>
   </si>
   <si>
     <t>摇镜</t>
@@ -827,12 +826,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,9 +910,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +925,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,23 +946,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -972,15 +978,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,15 +993,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,34 +1055,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1082,7 +1098,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,37 +1224,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,115 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,20 +1282,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1277,29 +1293,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,16 +1323,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,6 +1353,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,47 +1383,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1409,10 +1397,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1421,140 +1409,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1579,6 +1567,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,18 +1579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,12 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2254,43 +2227,43 @@
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="1"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="1"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="11" s="30" customFormat="1" ht="36" customHeight="1" spans="5:10">
-      <c r="E11" s="31" t="s">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="11" s="25" customFormat="1" ht="36" customHeight="1" spans="5:10">
+      <c r="E11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="5:7">
       <c r="E12" s="7">
@@ -2352,10 +2325,10 @@
       <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="32" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -2372,7 +2345,7 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2436,7 +2409,7 @@
       <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2447,10 +2420,10 @@
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2486,10 +2459,10 @@
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2514,7 +2487,7 @@
       <c r="F28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2557,54 +2530,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:6">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="5:6">
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="10" s="30" customFormat="1" ht="36" customHeight="1" spans="5:10">
-      <c r="E10" s="31" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="36" customHeight="1" spans="5:10">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="5:8">
       <c r="E11" s="7">
@@ -2616,7 +2589,7 @@
       <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2630,7 +2603,7 @@
       <c r="G12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2672,7 +2645,7 @@
       <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2683,10 +2656,10 @@
       <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2697,10 +2670,10 @@
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2711,10 +2684,10 @@
       <c r="F18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2722,10 +2695,10 @@
       <c r="E19" s="7">
         <v>9</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2753,7 +2726,7 @@
       <c r="F21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2764,7 +2737,7 @@
       <c r="F22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="I22" t="s">
@@ -2827,23 +2800,23 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="7" spans="16:16">
       <c r="P7" t="s">
@@ -2851,7 +2824,7 @@
       </c>
     </row>
     <row r="8" spans="7:16">
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>79</v>
       </c>
       <c r="P8" t="s">
@@ -2874,7 +2847,7 @@
       </c>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2885,17 +2858,17 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -2928,21 +2901,21 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="27"/>
+      <c r="P33" s="22"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="7"/>
@@ -2950,7 +2923,7 @@
       <c r="G36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="7"/>
@@ -2958,7 +2931,7 @@
       <c r="G37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2978,7 +2951,7 @@
       <c r="G38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3020,7 +2993,7 @@
       <c r="G41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3034,7 +3007,7 @@
       <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3175,7 +3148,7 @@
       <c r="G55" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3186,7 +3159,7 @@
       <c r="G56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3194,10 +3167,10 @@
       <c r="F57" s="7">
         <v>20</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3208,7 +3181,7 @@
       <c r="G58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3216,25 +3189,25 @@
       <c r="F59" s="7">
         <v>22</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60" spans="7:8">
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="7">
         <v>23</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3298,7 +3271,7 @@
       <c r="G67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3306,10 +3279,10 @@
       <c r="F68" s="7">
         <v>29</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3328,7 +3301,7 @@
       <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3426,7 +3399,7 @@
       <c r="G77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3557,7 +3530,7 @@
       <c r="G87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3565,10 +3538,10 @@
       <c r="F89" s="7">
         <v>49</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3576,10 +3549,10 @@
       <c r="F90" s="7">
         <v>50</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3587,10 +3560,10 @@
       <c r="F91" s="7">
         <v>51</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3598,10 +3571,10 @@
       <c r="F92" s="7">
         <v>52</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3609,10 +3582,10 @@
       <c r="F93" s="7">
         <v>53</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3620,10 +3593,10 @@
       <c r="F94" s="7">
         <v>54</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3631,10 +3604,10 @@
       <c r="F95" s="7">
         <v>55</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3642,10 +3615,10 @@
       <c r="F96" s="7">
         <v>56</v>
       </c>
-      <c r="G96" s="15" t="s">
+      <c r="G96" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3653,10 +3626,10 @@
       <c r="F97" s="7">
         <v>57</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="G97" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3664,10 +3637,10 @@
       <c r="F98" s="7">
         <v>58</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="G98" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3675,10 +3648,10 @@
       <c r="F99" s="7">
         <v>59</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3686,10 +3659,10 @@
       <c r="F100" s="7">
         <v>60</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3697,24 +3670,24 @@
       <c r="F101" s="7">
         <v>61</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H101" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="1"/>
-      <c r="H102" s="14"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="7:8">
       <c r="G103" s="1"/>
-      <c r="H103" s="14"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="7:8">
       <c r="G104" s="1"/>
-      <c r="H104" s="14"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="106" spans="7:7">
       <c r="G106" s="1" t="s">
@@ -3722,19 +3695,19 @@
       </c>
     </row>
     <row r="118" spans="8:8">
-      <c r="H118" s="25"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="120" spans="8:8">
-      <c r="H120" s="29"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="122" spans="8:8">
-      <c r="H122" s="25"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="124" spans="8:8">
-      <c r="H124" s="25"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="127" spans="8:8">
-      <c r="H127" s="25"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" s="7"/>
@@ -3761,10 +3734,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E9:R85"/>
+  <dimension ref="E9:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3784,16 +3757,16 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="5:18">
       <c r="E10" s="5" t="s">
@@ -3873,7 +3846,7 @@
       <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3888,846 +3861,765 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="10:18">
-      <c r="J16" s="11" t="s">
+    <row r="16" spans="5:7">
+      <c r="E16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="F16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="7:11">
-      <c r="G17" t="s">
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
         <v>190</v>
       </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="7">
         <v>6</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="I19" s="7">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="10:15">
-      <c r="J20" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="K19" s="13" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11">
+      <c r="I20" s="7">
+        <v>8</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="9:11">
       <c r="I22" s="7">
-        <v>8</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="10:15">
-      <c r="J23" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11">
+        <v>9</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="7">
+        <v>10</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11">
+      <c r="G24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="I25" s="7">
-        <v>9</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="9:11">
-      <c r="I26" s="7">
-        <v>10</v>
-      </c>
-      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11">
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="7">
-        <v>11</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="7">
-        <v>12</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="9:11">
-      <c r="I30" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="9:11">
-      <c r="I31" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="9:11">
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18">
+      <c r="E31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="I32" s="7">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="5:18">
-      <c r="E34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="5:11">
-      <c r="E35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
       <c r="I35" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="9:11">
       <c r="I36" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="7:11">
-      <c r="G37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11">
-      <c r="I38" s="7">
-        <v>4</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="9:11">
       <c r="I39" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="7">
+        <v>8</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11">
+      <c r="G42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="I42" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7">
+        <v>10</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11">
+      <c r="G44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="7">
+        <v>11</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11">
-      <c r="I43" s="7">
-        <v>7</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="5:11">
-      <c r="E44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="7">
-        <v>8</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="7:11">
-      <c r="G45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="7">
-        <v>9</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="K45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="7:11">
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7">
+        <v>14</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12">
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="7:11">
+      <c r="G50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="7">
+        <v>15</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="7">
+        <v>16</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
+        <v>17</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="7:11">
-      <c r="G47" s="7" t="s">
+      <c r="K52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7">
+        <v>18</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11">
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="7">
+        <v>19</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55" s="7">
+        <v>20</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56" s="7">
+        <v>21</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57" s="7">
+        <v>22</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58" s="7">
         <v>23</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="7">
-        <v>11</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="7:11">
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7">
-        <v>12</v>
-      </c>
-      <c r="J48" s="7" t="s">
+      <c r="J58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="7:11">
+      <c r="G59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="7">
+        <v>24</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="1"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11">
+      <c r="I64" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="J64" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="K48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="7:11">
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7">
-        <v>13</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="K64" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11">
+      <c r="I65" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="7:11">
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7">
-        <v>14</v>
-      </c>
-      <c r="J50" s="7" t="s">
+      <c r="K65" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11">
+      <c r="I66" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11">
+      <c r="I67" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="7:13">
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="10:11">
-      <c r="J52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="7:12">
-      <c r="G53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="7:11">
-      <c r="G54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" s="7">
-        <v>15</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="7:11">
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I55" s="7">
-        <v>16</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="7:17">
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="7:11">
-      <c r="G57" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7">
-        <v>17</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="7:11">
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7">
-        <v>18</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11">
-      <c r="E59" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="7">
-        <v>19</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11">
-      <c r="I60" s="7">
-        <v>20</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K60" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11">
-      <c r="I61" s="7">
-        <v>21</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11">
-      <c r="I62" s="7">
-        <v>22</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="K67" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11">
+      <c r="I68" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="J68" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11">
-      <c r="I63" s="7">
-        <v>23</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="7:11">
-      <c r="G64" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" s="7">
-        <v>24</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K64" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11">
-      <c r="J65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11">
-      <c r="J66" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="10:11">
-      <c r="J67" s="1"/>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="10:11">
-      <c r="J68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>238</v>
+      <c r="K68" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="9:11">
       <c r="I69" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="J69" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>239</v>
+        <v>12.1</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="9:11">
       <c r="I70" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>168</v>
+        <v>13.1</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="9:11">
       <c r="I71" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="9:12">
+        <v>14.1</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11">
       <c r="I72" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="J72" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="L72" s="13"/>
+        <v>15.1</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="73" spans="9:11">
       <c r="I73" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>241</v>
+        <v>16.1</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="9:11">
       <c r="I74" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>242</v>
+        <v>17.1</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="9:11">
       <c r="I75" s="7">
-        <v>12.1</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K75" s="16" t="s">
-        <v>172</v>
+        <v>18.1</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="9:11">
       <c r="I76" s="7">
-        <v>13.1</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>243</v>
+        <v>19.1</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="9:11">
       <c r="I77" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="J77" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K77" s="16" t="s">
-        <v>244</v>
+        <v>20.1</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="9:11">
       <c r="I78" s="7">
-        <v>15.1</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>245</v>
+        <v>21.1</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="9:11">
       <c r="I79" s="7">
-        <v>16.1</v>
-      </c>
-      <c r="J79" s="15" t="s">
+        <v>22.1</v>
+      </c>
+      <c r="J79" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K79" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="9:11">
-      <c r="I80" s="7">
-        <v>17.1</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="9:11">
-      <c r="I81" s="7">
-        <v>18.1</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="9:11">
-      <c r="I82" s="7">
-        <v>19.1</v>
-      </c>
-      <c r="J82" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="9:11">
-      <c r="I83" s="7">
-        <v>20.1</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="9:11">
-      <c r="I84" s="7">
-        <v>21.1</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K84" s="16" t="s">
+      <c r="K79" s="13" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="9:11">
-      <c r="I85" s="7">
-        <v>22.1</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" s="16" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4641,7 @@
   <sheetData>
     <row r="19" spans="8:8">
       <c r="H19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
